--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/CENTRALIZADORA DEL PASIVO Y PATRIMONIO.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/CENTRALIZADORA DEL PASIVO Y PATRIMONIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77501229-D3EE-4F55-924C-6588F0CF6486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EDFEE0-7C66-4100-A42C-A541D783C659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,9 +138,6 @@
     <t xml:space="preserve">AUDITORIA FINANCIERA </t>
   </si>
   <si>
-    <t>DEL 01 DE ENERO AL 31  DE DICIEMBRE DE 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">CEDULA CENTRALIZADORA PASIVO </t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>Logo</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
@@ -416,28 +416,28 @@
     </xf>
     <xf numFmtId="4" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -889,7 +889,7 @@
   <dimension ref="B2:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,8 +905,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
-        <v>33</v>
+      <c r="B2" s="37" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -918,7 +918,7 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="41"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -929,7 +929,7 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="41"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -938,15 +938,15 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="41"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="37"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="34" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="7"/>
@@ -954,10 +954,10 @@
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="9" t="s">
@@ -967,12 +967,12 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
-      <c r="C7" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="C7" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="3"/>
       <c r="H7" s="9" t="s">
         <v>1</v>
@@ -982,10 +982,10 @@
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="39"/>
+      <c r="D8" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="40"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
       <c r="H8" s="9" t="s">
@@ -996,10 +996,10 @@
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="40"/>
+      <c r="D9" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="41"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="9" t="s">
@@ -1008,14 +1008,14 @@
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="11" spans="2:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B11" s="24"/>
@@ -1029,10 +1029,10 @@
       <c r="F11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="35"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="27" t="s">
         <v>5</v>
       </c>

--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/CENTRALIZADORA DEL PASIVO Y PATRIMONIO.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/CENTRALIZADORA DEL PASIVO Y PATRIMONIO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\Desarrollos-Clientes\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EDFEE0-7C66-4100-A42C-A541D783C659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA4FE80-759E-4FDB-9768-AB2F348C6DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,9 +138,6 @@
     <t xml:space="preserve">AUDITORIA FINANCIERA </t>
   </si>
   <si>
-    <t xml:space="preserve">CEDULA CENTRALIZADORA PASIVO </t>
-  </si>
-  <si>
     <t>(Cifras expresadas en quetzales)</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>CEDULA CENTRALIZADORA PASIVO Y PATRIMONIO</t>
   </si>
 </sst>
 </file>
@@ -355,12 +355,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -889,7 +888,7 @@
   <dimension ref="B2:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,427 +904,427 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="36"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="36"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="36"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="37"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="37"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="39" t="s">
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="9" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="2:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="27" t="s">
+      <c r="H11" s="35"/>
+      <c r="I11" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32">
+      <c r="C23" s="30"/>
+      <c r="D23" s="31">
         <f t="shared" ref="D23:I23" si="0">SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="4"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="3"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="4"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="4"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="3"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="3"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="2"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="3"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="2"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="3"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="2"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="3"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="2"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="3"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="2"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="3"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="2"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="3"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="2"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="3"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="3"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="19" t="s">
+      <c r="B38" s="6"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="19" t="s">
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="22" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="22" t="s">
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="22" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="22" t="s">
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1335,8 +1334,8 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C7:F7"/>
-    <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
